--- a/Code/Results/Cases/Case_9_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.201566684276997</v>
+        <v>1.093361664256008</v>
       </c>
       <c r="C2">
-        <v>0.2219794702840545</v>
+        <v>0.260192570660621</v>
       </c>
       <c r="D2">
-        <v>0.04497070009290027</v>
+        <v>0.04834224198838655</v>
       </c>
       <c r="E2">
-        <v>1.28244022947095</v>
+        <v>1.284496864648759</v>
       </c>
       <c r="F2">
-        <v>0.9181032826555651</v>
+        <v>0.8154363905312039</v>
       </c>
       <c r="G2">
-        <v>0.8500256870147354</v>
+        <v>0.7158394972176154</v>
       </c>
       <c r="H2">
-        <v>0.003948867121717159</v>
+        <v>0.004132408472118598</v>
       </c>
       <c r="I2">
-        <v>0.0006206484343196372</v>
+        <v>0.0005693361545162645</v>
       </c>
       <c r="J2">
-        <v>0.5776790112669659</v>
+        <v>0.5516213895105722</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2294901563608924</v>
       </c>
       <c r="M2">
-        <v>1.310092309907731</v>
+        <v>0.1375571898310142</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.289782377537847</v>
       </c>
       <c r="P2">
-        <v>0.9618054495330135</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8825215287704005</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.044753468086441</v>
+        <v>0.9558138732484736</v>
       </c>
       <c r="C3">
-        <v>0.1950227838098897</v>
+        <v>0.2246872765915953</v>
       </c>
       <c r="D3">
-        <v>0.04252848955400523</v>
+        <v>0.04479883998666523</v>
       </c>
       <c r="E3">
-        <v>1.11358412289492</v>
+        <v>1.116357888398625</v>
       </c>
       <c r="F3">
-        <v>0.8493262954080905</v>
+        <v>0.7604858243046095</v>
       </c>
       <c r="G3">
-        <v>0.7873402636539737</v>
+        <v>0.6700182546513247</v>
       </c>
       <c r="H3">
-        <v>0.002143214554353845</v>
+        <v>0.002345687933384522</v>
       </c>
       <c r="I3">
-        <v>0.001250201243948368</v>
+        <v>0.0008703741318187852</v>
       </c>
       <c r="J3">
-        <v>0.5524904451443433</v>
+        <v>0.5299451782857858</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2304254309273475</v>
       </c>
       <c r="M3">
-        <v>1.138099371162326</v>
+        <v>0.127250810706272</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.122379055109349</v>
       </c>
       <c r="P3">
-        <v>0.9875359341752201</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.9118758168075907</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9482216133124837</v>
+        <v>0.8708198619322047</v>
       </c>
       <c r="C4">
-        <v>0.1787011909152199</v>
+        <v>0.2032544103241207</v>
       </c>
       <c r="D4">
-        <v>0.04100908989841656</v>
+        <v>0.04261938691902856</v>
       </c>
       <c r="E4">
-        <v>1.010271831724239</v>
+        <v>1.013404410407375</v>
       </c>
       <c r="F4">
-        <v>0.8075920350219832</v>
+        <v>0.7270182521859851</v>
       </c>
       <c r="G4">
-        <v>0.7492321502407293</v>
+        <v>0.6422018689014664</v>
       </c>
       <c r="H4">
-        <v>0.001280776223239632</v>
+        <v>0.001471425466422538</v>
       </c>
       <c r="I4">
-        <v>0.001926319017929945</v>
+        <v>0.001279787771538476</v>
       </c>
       <c r="J4">
-        <v>0.5372811835861597</v>
+        <v>0.5165860178769606</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2308653095101363</v>
       </c>
       <c r="M4">
-        <v>1.032643983614548</v>
+        <v>0.1215724701132856</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.019590033713087</v>
       </c>
       <c r="P4">
-        <v>1.003696265685612</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9302694385455723</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9077589016378624</v>
+        <v>0.835080919945824</v>
       </c>
       <c r="C5">
-        <v>0.1725159907710889</v>
+        <v>0.1950531247820777</v>
       </c>
       <c r="D5">
-        <v>0.04042278205027117</v>
+        <v>0.04177394729607187</v>
       </c>
       <c r="E5">
-        <v>0.9682268653236434</v>
+        <v>0.9714884765145371</v>
       </c>
       <c r="F5">
-        <v>0.7897877843376904</v>
+        <v>0.7126204487714247</v>
       </c>
       <c r="G5">
-        <v>0.7327715783740558</v>
+        <v>0.6300423169099929</v>
       </c>
       <c r="H5">
-        <v>0.0009861698945261566</v>
+        <v>0.00116655080286443</v>
       </c>
       <c r="I5">
-        <v>0.002344827355386325</v>
+        <v>0.001585494875099513</v>
       </c>
       <c r="J5">
-        <v>0.5306250140459667</v>
+        <v>0.510651983572302</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2307097757204062</v>
       </c>
       <c r="M5">
-        <v>0.9894735076870802</v>
+        <v>0.1192246982921361</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9774837633532627</v>
       </c>
       <c r="P5">
-        <v>1.009764001796732</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9374033308729182</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8997459637887175</v>
+        <v>0.827960282192123</v>
       </c>
       <c r="C6">
-        <v>0.1720001898095092</v>
+        <v>0.1942452356833968</v>
       </c>
       <c r="D6">
-        <v>0.0403717890875015</v>
+        <v>0.04168741215960381</v>
       </c>
       <c r="E6">
-        <v>0.9612296608410844</v>
+        <v>0.9645129863757944</v>
       </c>
       <c r="F6">
-        <v>0.7857265371515254</v>
+        <v>0.7092329581665098</v>
       </c>
       <c r="G6">
-        <v>0.7288024440523344</v>
+        <v>0.6269362368435196</v>
       </c>
       <c r="H6">
-        <v>0.0009396110188937268</v>
+        <v>0.001117978917115625</v>
       </c>
       <c r="I6">
-        <v>0.002516378553854004</v>
+        <v>0.001752648196095663</v>
       </c>
       <c r="J6">
-        <v>0.5288907413014385</v>
+        <v>0.5090846903571133</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2303153807959326</v>
       </c>
       <c r="M6">
-        <v>0.9820383958994512</v>
+        <v>0.1186057260028441</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9702385498800936</v>
       </c>
       <c r="P6">
-        <v>1.010040405982654</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9380451119464155</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9441400576365595</v>
+        <v>0.8662759421019359</v>
       </c>
       <c r="C7">
-        <v>0.1800088300136338</v>
+        <v>0.2042118158846193</v>
       </c>
       <c r="D7">
-        <v>0.04112938127538257</v>
+        <v>0.04285096713242353</v>
       </c>
       <c r="E7">
-        <v>1.009650153218004</v>
+        <v>1.012752909570182</v>
       </c>
       <c r="F7">
-        <v>0.8043128366037564</v>
+        <v>0.7224180092815615</v>
       </c>
       <c r="G7">
-        <v>0.7456171133158875</v>
+        <v>0.6424277233914069</v>
       </c>
       <c r="H7">
-        <v>0.001273343568145791</v>
+        <v>0.0014617658352436</v>
       </c>
       <c r="I7">
-        <v>0.002182251232231813</v>
+        <v>0.001577016987691415</v>
       </c>
       <c r="J7">
-        <v>0.5354633663512232</v>
+        <v>0.5084850832052439</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2294663073198997</v>
       </c>
       <c r="M7">
-        <v>1.031326832076275</v>
+        <v>0.12058457866517</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.016994007080541</v>
       </c>
       <c r="P7">
-        <v>1.001779616424237</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9281837921302021</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.142807868666353</v>
+        <v>1.038936991423554</v>
       </c>
       <c r="C8">
-        <v>0.2144927608721616</v>
+        <v>0.2484164105121494</v>
       </c>
       <c r="D8">
-        <v>0.044306014256982</v>
+        <v>0.04764827850834763</v>
       </c>
       <c r="E8">
-        <v>1.224051543298671</v>
+        <v>1.226256236217822</v>
       </c>
       <c r="F8">
-        <v>0.890244923848897</v>
+        <v>0.7872674690862809</v>
       </c>
       <c r="G8">
-        <v>0.8238214508866832</v>
+        <v>0.7073236587966676</v>
       </c>
       <c r="H8">
-        <v>0.003266030072532677</v>
+        <v>0.003451199816018935</v>
       </c>
       <c r="I8">
-        <v>0.00106934782214374</v>
+        <v>0.0009740699945490761</v>
       </c>
       <c r="J8">
-        <v>0.5666507850924489</v>
+        <v>0.5209390560724643</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2273508761588872</v>
       </c>
       <c r="M8">
-        <v>1.249758228970705</v>
+        <v>0.1318835611393609</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.226638277059692</v>
       </c>
       <c r="P8">
-        <v>0.968019497081837</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8885175892327233</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.537302084100759</v>
+        <v>1.38237079557976</v>
       </c>
       <c r="C9">
-        <v>0.2817069916692105</v>
+        <v>0.3371833247330471</v>
       </c>
       <c r="D9">
-        <v>0.05014700759764423</v>
+        <v>0.05641388169925676</v>
       </c>
       <c r="E9">
-        <v>1.648496588332293</v>
+        <v>1.64829852973989</v>
       </c>
       <c r="F9">
-        <v>1.068776027174465</v>
+        <v>0.9280254255857301</v>
       </c>
       <c r="G9">
-        <v>0.9868985053938104</v>
+        <v>0.8306863387548162</v>
       </c>
       <c r="H9">
-        <v>0.009338102024603209</v>
+        <v>0.009315446946853143</v>
       </c>
       <c r="I9">
-        <v>0.001008135232542173</v>
+        <v>0.001266377776083516</v>
       </c>
       <c r="J9">
-        <v>0.6332062906483031</v>
+        <v>0.5708094764872129</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2252668828695761</v>
       </c>
       <c r="M9">
-        <v>1.681389135683247</v>
+        <v>0.1616562040564595</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.644428438791124</v>
       </c>
       <c r="P9">
-        <v>0.9083595883951929</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8188536577758398</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.815277406422609</v>
+        <v>1.618579895503871</v>
       </c>
       <c r="C10">
-        <v>0.3305826238220106</v>
+        <v>0.3987927308098165</v>
       </c>
       <c r="D10">
-        <v>0.05527282084889151</v>
+        <v>0.06452232142180492</v>
       </c>
       <c r="E10">
-        <v>1.864304865503925</v>
+        <v>1.861639376750915</v>
       </c>
       <c r="F10">
-        <v>1.185807050621136</v>
+        <v>1.009195080931789</v>
       </c>
       <c r="G10">
-        <v>1.089920110935381</v>
+        <v>0.9279071851125451</v>
       </c>
       <c r="H10">
-        <v>0.01490604995963274</v>
+        <v>0.01455835932643534</v>
       </c>
       <c r="I10">
-        <v>0.002806802023970434</v>
+        <v>0.002918243929064701</v>
       </c>
       <c r="J10">
-        <v>0.6740719345159789</v>
+        <v>0.5637494136178987</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2183067271711998</v>
       </c>
       <c r="M10">
-        <v>1.987879155562268</v>
+        <v>0.1815398966633737</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.932208315087422</v>
       </c>
       <c r="P10">
-        <v>0.8586233360917603</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7621490099885087</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.850279324692593</v>
+        <v>1.647273089373044</v>
       </c>
       <c r="C11">
-        <v>0.3304062766808897</v>
+        <v>0.3898188118856183</v>
       </c>
       <c r="D11">
-        <v>0.06620613293847555</v>
+        <v>0.07912711354038038</v>
       </c>
       <c r="E11">
-        <v>1.193085307677123</v>
+        <v>1.190401007751191</v>
       </c>
       <c r="F11">
-        <v>1.095778390373709</v>
+        <v>0.9121766776803639</v>
       </c>
       <c r="G11">
-        <v>0.9783719526154755</v>
+        <v>0.8736934845778848</v>
       </c>
       <c r="H11">
-        <v>0.03113187364577996</v>
+        <v>0.03072155252204922</v>
       </c>
       <c r="I11">
-        <v>0.003752967757052694</v>
+        <v>0.003861256257487788</v>
       </c>
       <c r="J11">
-        <v>0.6142235575268558</v>
+        <v>0.4487582935925616</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1903532734582392</v>
       </c>
       <c r="M11">
-        <v>2.017344324718522</v>
+        <v>0.1621328572792038</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.944764015197336</v>
       </c>
       <c r="P11">
-        <v>0.7798050959961991</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7064050480771655</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.826436189163161</v>
+        <v>1.629682010876195</v>
       </c>
       <c r="C12">
-        <v>0.3181103882095329</v>
+        <v>0.3691244885865217</v>
       </c>
       <c r="D12">
-        <v>0.07533759734100443</v>
+        <v>0.0903166661423711</v>
       </c>
       <c r="E12">
-        <v>0.7113460745750757</v>
+        <v>0.7092435231833178</v>
       </c>
       <c r="F12">
-        <v>1.002452483659368</v>
+        <v>0.826392524499397</v>
       </c>
       <c r="G12">
-        <v>0.8725485476719399</v>
+        <v>0.8009820227948552</v>
       </c>
       <c r="H12">
-        <v>0.06775853058158532</v>
+        <v>0.06737757271533695</v>
       </c>
       <c r="I12">
-        <v>0.003714908767308067</v>
+        <v>0.003816143388748472</v>
       </c>
       <c r="J12">
-        <v>0.5597056642852181</v>
+        <v>0.3844421132204161</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1720794106433416</v>
       </c>
       <c r="M12">
-        <v>1.978426848488169</v>
+        <v>0.1446968734193774</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.900700742931463</v>
       </c>
       <c r="P12">
-        <v>0.7359795159570197</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6844334556618241</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.75056298302826</v>
+        <v>1.572717474004293</v>
       </c>
       <c r="C13">
-        <v>0.2981600953321077</v>
+        <v>0.3418356740378954</v>
       </c>
       <c r="D13">
-        <v>0.08366992724575795</v>
+        <v>0.09893940496312581</v>
       </c>
       <c r="E13">
-        <v>0.3479955548558991</v>
+        <v>0.3467042010598433</v>
       </c>
       <c r="F13">
-        <v>0.8966624964037351</v>
+        <v>0.7427255319014989</v>
       </c>
       <c r="G13">
-        <v>0.7599837569948846</v>
+        <v>0.6991031228225211</v>
       </c>
       <c r="H13">
-        <v>0.1215036660854594</v>
+        <v>0.1212158337212514</v>
       </c>
       <c r="I13">
-        <v>0.0032556433131532</v>
+        <v>0.00343219866249278</v>
       </c>
       <c r="J13">
-        <v>0.5035055075927346</v>
+        <v>0.3548709928463154</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1585543277918511</v>
       </c>
       <c r="M13">
-        <v>1.883913484393673</v>
+        <v>0.1273864653966612</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.813119883650813</v>
       </c>
       <c r="P13">
-        <v>0.7126297450634915</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.681854745487847</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.673371040560625</v>
+        <v>1.514197633565374</v>
       </c>
       <c r="C14">
-        <v>0.2813720111990392</v>
+        <v>0.3203390100341323</v>
       </c>
       <c r="D14">
-        <v>0.08926793250786602</v>
+        <v>0.1038140581710749</v>
       </c>
       <c r="E14">
-        <v>0.1655979702249084</v>
+        <v>0.1648292394791326</v>
       </c>
       <c r="F14">
-        <v>0.8172459665979233</v>
+        <v>0.6843013110497793</v>
       </c>
       <c r="G14">
-        <v>0.6786600071429234</v>
+        <v>0.6171121693145238</v>
       </c>
       <c r="H14">
-        <v>0.1695581320553714</v>
+        <v>0.169351837362882</v>
       </c>
       <c r="I14">
-        <v>0.002870001131888067</v>
+        <v>0.00313501297082297</v>
       </c>
       <c r="J14">
-        <v>0.4635648843297133</v>
+        <v>0.3461693421818524</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1507550663903352</v>
       </c>
       <c r="M14">
-        <v>1.793117765208223</v>
+        <v>0.1153061553960519</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.732181170218496</v>
       </c>
       <c r="P14">
-        <v>0.7062532426203769</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6880341191883321</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.642306183663123</v>
+        <v>1.490212974613911</v>
       </c>
       <c r="C15">
-        <v>0.2761408953989672</v>
+        <v>0.3140727317117182</v>
       </c>
       <c r="D15">
-        <v>0.09037852519912803</v>
+        <v>0.1043710152386481</v>
       </c>
       <c r="E15">
-        <v>0.1301124533542257</v>
+        <v>0.1294915622479067</v>
       </c>
       <c r="F15">
-        <v>0.7941045128720958</v>
+        <v>0.6688505245724059</v>
       </c>
       <c r="G15">
-        <v>0.6559606796537878</v>
+        <v>0.5912892046509484</v>
       </c>
       <c r="H15">
-        <v>0.1816376265104935</v>
+        <v>0.1814631169514627</v>
       </c>
       <c r="I15">
-        <v>0.002807629658450495</v>
+        <v>0.003127266658541572</v>
       </c>
       <c r="J15">
-        <v>0.4527855458702277</v>
+        <v>0.3485809636456594</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1492856317789588</v>
       </c>
       <c r="M15">
-        <v>1.759089107988586</v>
+        <v>0.1120273345252016</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.702731191342536</v>
       </c>
       <c r="P15">
-        <v>0.7075910788999542</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6919559801426693</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.538202088460906</v>
+        <v>1.407448415732205</v>
       </c>
       <c r="C16">
-        <v>0.2606221353466793</v>
+        <v>0.298628889290967</v>
       </c>
       <c r="D16">
-        <v>0.0862085250269331</v>
+        <v>0.0971231464078457</v>
       </c>
       <c r="E16">
-        <v>0.1266053987235622</v>
+        <v>0.126379286995089</v>
       </c>
       <c r="F16">
-        <v>0.7655062856785833</v>
+        <v>0.6621969972278876</v>
       </c>
       <c r="G16">
-        <v>0.6349591786564446</v>
+        <v>0.5459292446155075</v>
       </c>
       <c r="H16">
-        <v>0.1673285505420807</v>
+        <v>0.1672707777077562</v>
       </c>
       <c r="I16">
-        <v>0.00225600465251663</v>
+        <v>0.002686726067477885</v>
       </c>
       <c r="J16">
-        <v>0.4465145528887291</v>
+        <v>0.3920428571219929</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1547987550477465</v>
       </c>
       <c r="M16">
-        <v>1.648777379277533</v>
+        <v>0.1101214114602485</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.610726378831146</v>
       </c>
       <c r="P16">
-        <v>0.7308724369005218</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7115639715201763</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.498965153545441</v>
+        <v>1.373481565233902</v>
       </c>
       <c r="C17">
-        <v>0.2575765082400494</v>
+        <v>0.2975492306005663</v>
       </c>
       <c r="D17">
-        <v>0.08001505627563432</v>
+        <v>0.08941355456418876</v>
       </c>
       <c r="E17">
-        <v>0.2070388827224079</v>
+        <v>0.2069772012067403</v>
       </c>
       <c r="F17">
-        <v>0.7851442152498436</v>
+        <v>0.6863447786852461</v>
       </c>
       <c r="G17">
-        <v>0.6611639703945826</v>
+        <v>0.5567790878232586</v>
       </c>
       <c r="H17">
-        <v>0.1289572792525178</v>
+        <v>0.1289442905135729</v>
       </c>
       <c r="I17">
-        <v>0.002071325878163499</v>
+        <v>0.002534376122350857</v>
       </c>
       <c r="J17">
-        <v>0.46258355371954</v>
+        <v>0.4274050937298313</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1633204303606952</v>
       </c>
       <c r="M17">
-        <v>1.612014342266463</v>
+        <v>0.1144944033099229</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.580872286128482</v>
       </c>
       <c r="P17">
-        <v>0.7517119660550451</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7248638182969138</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.513913189378741</v>
+        <v>1.382262187641572</v>
       </c>
       <c r="C18">
-        <v>0.264050544667171</v>
+        <v>0.3087859985727448</v>
       </c>
       <c r="D18">
-        <v>0.07170522919702194</v>
+        <v>0.08027427710399593</v>
       </c>
       <c r="E18">
-        <v>0.4312503916139647</v>
+        <v>0.4312072428829978</v>
       </c>
       <c r="F18">
-        <v>0.8522208484647535</v>
+        <v>0.7461921742056745</v>
       </c>
       <c r="G18">
-        <v>0.7358826268160215</v>
+        <v>0.6140503323681514</v>
       </c>
       <c r="H18">
-        <v>0.076567769010083</v>
+        <v>0.07656056028337588</v>
       </c>
       <c r="I18">
-        <v>0.00181998606507161</v>
+        <v>0.002240105491469357</v>
       </c>
       <c r="J18">
-        <v>0.501978028768221</v>
+        <v>0.4701986194049397</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1770751685573906</v>
       </c>
       <c r="M18">
-        <v>1.634996546820076</v>
+        <v>0.1261412890509774</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.604860040561277</v>
       </c>
       <c r="P18">
-        <v>0.7779029940249611</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7380256250279511</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.5652850865186</v>
+        <v>1.419901253457169</v>
       </c>
       <c r="C19">
-        <v>0.2808502310855374</v>
+        <v>0.3330593162300772</v>
       </c>
       <c r="D19">
-        <v>0.06342311966417924</v>
+        <v>0.07149808953464998</v>
       </c>
       <c r="E19">
-        <v>0.8515259090322473</v>
+        <v>0.8512664263827361</v>
       </c>
       <c r="F19">
-        <v>0.9508757970520492</v>
+        <v>0.8297690327709688</v>
       </c>
       <c r="G19">
-        <v>0.8437516763911219</v>
+        <v>0.7013013514635702</v>
       </c>
       <c r="H19">
-        <v>0.03310187373703144</v>
+        <v>0.03306550349730486</v>
       </c>
       <c r="I19">
-        <v>0.002057546707139757</v>
+        <v>0.002495367344089061</v>
       </c>
       <c r="J19">
-        <v>0.5566635095751025</v>
+        <v>0.5187907983066538</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1937907207601555</v>
       </c>
       <c r="M19">
-        <v>1.70402834390768</v>
+        <v>0.1425266136499097</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.671288398360758</v>
       </c>
       <c r="P19">
-        <v>0.8115797977919215</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7543278805202451</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.730483007495138</v>
+        <v>1.549250064418146</v>
       </c>
       <c r="C20">
-        <v>0.3220006436067706</v>
+        <v>0.3888942576503496</v>
       </c>
       <c r="D20">
-        <v>0.05440209714567246</v>
+        <v>0.06256532317451757</v>
       </c>
       <c r="E20">
-        <v>1.803077050613922</v>
+        <v>1.801278928318141</v>
       </c>
       <c r="F20">
-        <v>1.14461650721006</v>
+        <v>0.9847737537225072</v>
       </c>
       <c r="G20">
-        <v>1.051284911121684</v>
+        <v>0.8798241968633533</v>
       </c>
       <c r="H20">
-        <v>0.01326877476584265</v>
+        <v>0.01304114179989302</v>
       </c>
       <c r="I20">
-        <v>0.002922692080058908</v>
+        <v>0.003280630801396178</v>
       </c>
       <c r="J20">
-        <v>0.6574825916651719</v>
+        <v>0.5825854575980856</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2188090610850644</v>
       </c>
       <c r="M20">
-        <v>1.904290558657607</v>
+        <v>0.174731775751706</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.858798554670983</v>
       </c>
       <c r="P20">
-        <v>0.8655678361461554</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7750507436137113</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.961403481758026</v>
+        <v>1.72697242106571</v>
       </c>
       <c r="C21">
-        <v>0.3637698870467716</v>
+        <v>0.4335121905600374</v>
       </c>
       <c r="D21">
-        <v>0.05690312036412593</v>
+        <v>0.0693090634926179</v>
       </c>
       <c r="E21">
-        <v>2.124612088142413</v>
+        <v>2.119599615770625</v>
       </c>
       <c r="F21">
-        <v>1.263129363271659</v>
+        <v>1.039050371973175</v>
       </c>
       <c r="G21">
-        <v>1.161938464534558</v>
+        <v>1.049173006360888</v>
       </c>
       <c r="H21">
-        <v>0.01891174620364167</v>
+        <v>0.01823353156259633</v>
       </c>
       <c r="I21">
-        <v>0.00488855636983665</v>
+        <v>0.004841251948456637</v>
       </c>
       <c r="J21">
-        <v>0.7045572386516881</v>
+        <v>0.481763259595283</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2121485080113104</v>
       </c>
       <c r="M21">
-        <v>2.160423327429299</v>
+        <v>0.1889760264390929</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.072533407162751</v>
       </c>
       <c r="P21">
-        <v>0.8405924350793583</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7293946128397799</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.112352989002261</v>
+        <v>1.841739240980672</v>
       </c>
       <c r="C22">
-        <v>0.3881433839204931</v>
+        <v>0.4582707841793479</v>
       </c>
       <c r="D22">
-        <v>0.05877831243527964</v>
+        <v>0.07426463993976284</v>
       </c>
       <c r="E22">
-        <v>2.285308186277803</v>
+        <v>2.278012887982484</v>
       </c>
       <c r="F22">
-        <v>1.33728492001714</v>
+        <v>1.068899078392576</v>
       </c>
       <c r="G22">
-        <v>1.230355362235599</v>
+        <v>1.166527373551133</v>
       </c>
       <c r="H22">
-        <v>0.02274959097680318</v>
+        <v>0.02172409347602633</v>
       </c>
       <c r="I22">
-        <v>0.006286986669731931</v>
+        <v>0.005770848403942708</v>
       </c>
       <c r="J22">
-        <v>0.7334734016527307</v>
+        <v>0.4159012457121776</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2070906902433656</v>
       </c>
       <c r="M22">
-        <v>2.323301238269636</v>
+        <v>0.1977382476654412</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.20499875954664</v>
       </c>
       <c r="P22">
-        <v>0.8234669717917171</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6992897628865755</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.036122464863922</v>
+        <v>1.786733468434676</v>
       </c>
       <c r="C23">
-        <v>0.3733741761331544</v>
+        <v>0.4443862175779429</v>
       </c>
       <c r="D23">
-        <v>0.05761349122978032</v>
+        <v>0.07109401462069087</v>
       </c>
       <c r="E23">
-        <v>2.199515748575308</v>
+        <v>2.193550684405977</v>
       </c>
       <c r="F23">
-        <v>1.301229992171741</v>
+        <v>1.060436687809968</v>
       </c>
       <c r="G23">
-        <v>1.197794258947937</v>
+        <v>1.09712176537262</v>
       </c>
       <c r="H23">
-        <v>0.02067633365786725</v>
+        <v>0.01985401321641556</v>
       </c>
       <c r="I23">
-        <v>0.005232545598884641</v>
+        <v>0.004925046534511424</v>
       </c>
       <c r="J23">
-        <v>0.7200302933735543</v>
+        <v>0.4647622897463037</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2113958674289833</v>
       </c>
       <c r="M23">
-        <v>2.237223908116789</v>
+        <v>0.1949820567314617</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.138879274218624</v>
       </c>
       <c r="P23">
-        <v>0.8346794071289381</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.717740575276725</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.741072620068223</v>
+        <v>1.557961360843734</v>
       </c>
       <c r="C24">
-        <v>0.3210183261475095</v>
+        <v>0.3884746472275253</v>
       </c>
       <c r="D24">
-        <v>0.05343202420615967</v>
+        <v>0.06141718729559642</v>
       </c>
       <c r="E24">
-        <v>1.876876188432519</v>
+        <v>1.874989608341096</v>
       </c>
       <c r="F24">
-        <v>1.16111169106378</v>
+        <v>0.9991232317909322</v>
       </c>
       <c r="G24">
-        <v>1.070003903368814</v>
+        <v>0.8949133383858339</v>
       </c>
       <c r="H24">
-        <v>0.01359362828496125</v>
+        <v>0.01335660902445079</v>
       </c>
       <c r="I24">
-        <v>0.002492384657252877</v>
+        <v>0.002745432291142436</v>
       </c>
       <c r="J24">
-        <v>0.66692224262016</v>
+        <v>0.5916716690266099</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2223155526808895</v>
       </c>
       <c r="M24">
-        <v>1.911431578021819</v>
+        <v>0.1781489310953894</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.86577867403426</v>
       </c>
       <c r="P24">
-        <v>0.8749191962647558</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7809079864371036</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.4241167208192</v>
+        <v>1.285153601509819</v>
       </c>
       <c r="C25">
-        <v>0.2658360225460967</v>
+        <v>0.3162547965443991</v>
       </c>
       <c r="D25">
-        <v>0.04882661127975751</v>
+        <v>0.05419008445677065</v>
       </c>
       <c r="E25">
-        <v>1.532988508749796</v>
+        <v>1.533608124340915</v>
       </c>
       <c r="F25">
-        <v>1.014370439922899</v>
+        <v>0.8870921828458336</v>
       </c>
       <c r="G25">
-        <v>0.9361362037261074</v>
+        <v>0.7866314279735604</v>
       </c>
       <c r="H25">
-        <v>0.007422523108560453</v>
+        <v>0.007489165091203009</v>
       </c>
       <c r="I25">
-        <v>0.001135136849915064</v>
+        <v>0.001450553084844763</v>
       </c>
       <c r="J25">
-        <v>0.611793175465877</v>
+        <v>0.5635833918678657</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2249539722381435</v>
       </c>
       <c r="M25">
-        <v>1.562913914376651</v>
+        <v>0.1520864206718322</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.531910131274032</v>
       </c>
       <c r="P25">
-        <v>0.9207357239532286</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8359350594977073</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
